--- a/visualstudiocode단축키.xlsx
+++ b/visualstudiocode단축키.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AF251-84A6-4B4D-9B09-E946637BBFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF405D65-F39C-47A6-B8D3-36B51D68AC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -691,10 +691,14 @@
   <dimension ref="B2:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
